--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,6 +92,12 @@
   </si>
   <si>
     <t>Lrrc4c</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -440,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -525,49 +540,979 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.426634977978909</v>
+        <v>0.01707366666666667</v>
       </c>
       <c r="H2">
-        <v>0.426634977978909</v>
+        <v>0.051221</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03481970177460088</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03481970177460088</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5927550794662581</v>
+        <v>0.03537</v>
       </c>
       <c r="N2">
-        <v>0.5927550794662581</v>
+        <v>0.10611</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04200030873848662</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04200030873848662</v>
       </c>
       <c r="Q2">
-        <v>0.2528900502749735</v>
+        <v>0.00060389559</v>
       </c>
       <c r="R2">
-        <v>0.2528900502749735</v>
+        <v>0.00543506031</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.001462438224715267</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.001462438224715267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.01707366666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.051221</v>
+      </c>
+      <c r="I3">
+        <v>0.03481970177460088</v>
+      </c>
+      <c r="J3">
+        <v>0.03481970177460088</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.1535116666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.460535</v>
+      </c>
+      <c r="O3">
+        <v>0.1822883063319097</v>
+      </c>
+      <c r="P3">
+        <v>0.1822883063319097</v>
+      </c>
+      <c r="Q3">
+        <v>0.002621007026111111</v>
+      </c>
+      <c r="R3">
+        <v>0.023589063235</v>
+      </c>
+      <c r="S3">
+        <v>0.006347224463474185</v>
+      </c>
+      <c r="T3">
+        <v>0.006347224463474185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.01707366666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.051221</v>
+      </c>
+      <c r="I4">
+        <v>0.03481970177460088</v>
+      </c>
+      <c r="J4">
+        <v>0.03481970177460088</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.055812</v>
+      </c>
+      <c r="N4">
+        <v>0.167436</v>
+      </c>
+      <c r="O4">
+        <v>0.06627427852169679</v>
+      </c>
+      <c r="P4">
+        <v>0.06627427852169679</v>
+      </c>
+      <c r="Q4">
+        <v>0.0009529154840000001</v>
+      </c>
+      <c r="R4">
+        <v>0.008576239356</v>
+      </c>
+      <c r="S4">
+        <v>0.002307650613452319</v>
+      </c>
+      <c r="T4">
+        <v>0.002307650613452319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01707366666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.051221</v>
+      </c>
+      <c r="I5">
+        <v>0.03481970177460088</v>
+      </c>
+      <c r="J5">
+        <v>0.03481970177460088</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5974430000000001</v>
+      </c>
+      <c r="N5">
+        <v>1.792329</v>
+      </c>
+      <c r="O5">
+        <v>0.7094371064079069</v>
+      </c>
+      <c r="P5">
+        <v>0.7094371064079068</v>
+      </c>
+      <c r="Q5">
+        <v>0.01020054263433333</v>
+      </c>
+      <c r="R5">
+        <v>0.091804883709</v>
+      </c>
+      <c r="S5">
+        <v>0.02470238847295911</v>
+      </c>
+      <c r="T5">
+        <v>0.0247023884729591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.0006813333333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.002044</v>
+      </c>
+      <c r="I6">
+        <v>0.001389497870546928</v>
+      </c>
+      <c r="J6">
+        <v>0.001389497870546928</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.03537</v>
+      </c>
+      <c r="N6">
+        <v>0.10611</v>
+      </c>
+      <c r="O6">
+        <v>0.04200030873848662</v>
+      </c>
+      <c r="P6">
+        <v>0.04200030873848662</v>
+      </c>
+      <c r="Q6">
+        <v>2.409876E-05</v>
+      </c>
+      <c r="R6">
+        <v>0.00021688884</v>
+      </c>
+      <c r="S6">
+        <v>5.835933955444068E-05</v>
+      </c>
+      <c r="T6">
+        <v>5.835933955444068E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.0006813333333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.002044</v>
+      </c>
+      <c r="I7">
+        <v>0.001389497870546928</v>
+      </c>
+      <c r="J7">
+        <v>0.001389497870546928</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1535116666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.460535</v>
+      </c>
+      <c r="O7">
+        <v>0.1822883063319097</v>
+      </c>
+      <c r="P7">
+        <v>0.1822883063319097</v>
+      </c>
+      <c r="Q7">
+        <v>0.0001045926155555556</v>
+      </c>
+      <c r="R7">
+        <v>0.0009413335399999999</v>
+      </c>
+      <c r="S7">
+        <v>0.0002532892134737945</v>
+      </c>
+      <c r="T7">
+        <v>0.0002532892134737945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.0006813333333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.002044</v>
+      </c>
+      <c r="I8">
+        <v>0.001389497870546928</v>
+      </c>
+      <c r="J8">
+        <v>0.001389497870546928</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.055812</v>
+      </c>
+      <c r="N8">
+        <v>0.167436</v>
+      </c>
+      <c r="O8">
+        <v>0.06627427852169679</v>
+      </c>
+      <c r="P8">
+        <v>0.06627427852169679</v>
+      </c>
+      <c r="Q8">
+        <v>3.802657599999999E-05</v>
+      </c>
+      <c r="R8">
+        <v>0.000342239184</v>
+      </c>
+      <c r="S8">
+        <v>9.208796887793167E-05</v>
+      </c>
+      <c r="T8">
+        <v>9.208796887793167E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.0006813333333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.002044</v>
+      </c>
+      <c r="I9">
+        <v>0.001389497870546928</v>
+      </c>
+      <c r="J9">
+        <v>0.001389497870546928</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5974430000000001</v>
+      </c>
+      <c r="N9">
+        <v>1.792329</v>
+      </c>
+      <c r="O9">
+        <v>0.7094371064079069</v>
+      </c>
+      <c r="P9">
+        <v>0.7094371064079068</v>
+      </c>
+      <c r="Q9">
+        <v>0.0004070578306666667</v>
+      </c>
+      <c r="R9">
+        <v>0.003663520476</v>
+      </c>
+      <c r="S9">
+        <v>0.0009857613486407607</v>
+      </c>
+      <c r="T9">
+        <v>0.0009857613486407607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.006801333333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.020404</v>
+      </c>
+      <c r="I10">
+        <v>0.01387050614023459</v>
+      </c>
+      <c r="J10">
+        <v>0.01387050614023459</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.03537</v>
+      </c>
+      <c r="N10">
+        <v>0.10611</v>
+      </c>
+      <c r="O10">
+        <v>0.04200030873848662</v>
+      </c>
+      <c r="P10">
+        <v>0.04200030873848662</v>
+      </c>
+      <c r="Q10">
+        <v>0.00024056316</v>
+      </c>
+      <c r="R10">
+        <v>0.00216506844</v>
+      </c>
+      <c r="S10">
+        <v>0.0005825655402489274</v>
+      </c>
+      <c r="T10">
+        <v>0.0005825655402489274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.006801333333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.020404</v>
+      </c>
+      <c r="I11">
+        <v>0.01387050614023459</v>
+      </c>
+      <c r="J11">
+        <v>0.01387050614023459</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1535116666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.460535</v>
+      </c>
+      <c r="O11">
+        <v>0.1822883063319097</v>
+      </c>
+      <c r="P11">
+        <v>0.1822883063319097</v>
+      </c>
+      <c r="Q11">
+        <v>0.001044084015555556</v>
+      </c>
+      <c r="R11">
+        <v>0.00939675614</v>
+      </c>
+      <c r="S11">
+        <v>0.002528431072269718</v>
+      </c>
+      <c r="T11">
+        <v>0.002528431072269718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.006801333333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.020404</v>
+      </c>
+      <c r="I12">
+        <v>0.01387050614023459</v>
+      </c>
+      <c r="J12">
+        <v>0.01387050614023459</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.055812</v>
+      </c>
+      <c r="N12">
+        <v>0.167436</v>
+      </c>
+      <c r="O12">
+        <v>0.06627427852169679</v>
+      </c>
+      <c r="P12">
+        <v>0.06627427852169679</v>
+      </c>
+      <c r="Q12">
+        <v>0.000379596016</v>
+      </c>
+      <c r="R12">
+        <v>0.003416364144</v>
+      </c>
+      <c r="S12">
+        <v>0.000919257787174813</v>
+      </c>
+      <c r="T12">
+        <v>0.000919257787174813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.006801333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.020404</v>
+      </c>
+      <c r="I13">
+        <v>0.01387050614023459</v>
+      </c>
+      <c r="J13">
+        <v>0.01387050614023459</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5974430000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.792329</v>
+      </c>
+      <c r="O13">
+        <v>0.7094371064079069</v>
+      </c>
+      <c r="P13">
+        <v>0.7094371064079068</v>
+      </c>
+      <c r="Q13">
+        <v>0.004063408990666667</v>
+      </c>
+      <c r="R13">
+        <v>0.036570680916</v>
+      </c>
+      <c r="S13">
+        <v>0.009840251740541137</v>
+      </c>
+      <c r="T13">
+        <v>0.009840251740541135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4657886666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.397366</v>
+      </c>
+      <c r="I14">
+        <v>0.9499202942146175</v>
+      </c>
+      <c r="J14">
+        <v>0.9499202942146177</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03537</v>
+      </c>
+      <c r="N14">
+        <v>0.10611</v>
+      </c>
+      <c r="O14">
+        <v>0.04200030873848662</v>
+      </c>
+      <c r="P14">
+        <v>0.04200030873848662</v>
+      </c>
+      <c r="Q14">
+        <v>0.01647494514</v>
+      </c>
+      <c r="R14">
+        <v>0.14827450626</v>
+      </c>
+      <c r="S14">
+        <v>0.03989694563396798</v>
+      </c>
+      <c r="T14">
+        <v>0.03989694563396799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4657886666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.397366</v>
+      </c>
+      <c r="I15">
+        <v>0.9499202942146175</v>
+      </c>
+      <c r="J15">
+        <v>0.9499202942146177</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1535116666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.460535</v>
+      </c>
+      <c r="O15">
+        <v>0.1822883063319097</v>
+      </c>
+      <c r="P15">
+        <v>0.1822883063319097</v>
+      </c>
+      <c r="Q15">
+        <v>0.07150399453444446</v>
+      </c>
+      <c r="R15">
+        <v>0.64353595081</v>
+      </c>
+      <c r="S15">
+        <v>0.173159361582692</v>
+      </c>
+      <c r="T15">
+        <v>0.173159361582692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4657886666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.397366</v>
+      </c>
+      <c r="I16">
+        <v>0.9499202942146175</v>
+      </c>
+      <c r="J16">
+        <v>0.9499202942146177</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.055812</v>
+      </c>
+      <c r="N16">
+        <v>0.167436</v>
+      </c>
+      <c r="O16">
+        <v>0.06627427852169679</v>
+      </c>
+      <c r="P16">
+        <v>0.06627427852169679</v>
+      </c>
+      <c r="Q16">
+        <v>0.025996597064</v>
+      </c>
+      <c r="R16">
+        <v>0.233969373576</v>
+      </c>
+      <c r="S16">
+        <v>0.06295528215219172</v>
+      </c>
+      <c r="T16">
+        <v>0.06295528215219173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4657886666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.397366</v>
+      </c>
+      <c r="I17">
+        <v>0.9499202942146175</v>
+      </c>
+      <c r="J17">
+        <v>0.9499202942146177</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5974430000000001</v>
+      </c>
+      <c r="N17">
+        <v>1.792329</v>
+      </c>
+      <c r="O17">
+        <v>0.7094371064079069</v>
+      </c>
+      <c r="P17">
+        <v>0.7094371064079068</v>
+      </c>
+      <c r="Q17">
+        <v>0.2782821783793334</v>
+      </c>
+      <c r="R17">
+        <v>2.504539605414</v>
+      </c>
+      <c r="S17">
+        <v>0.6739087048457658</v>
+      </c>
+      <c r="T17">
+        <v>0.6739087048457658</v>
       </c>
     </row>
   </sheetData>
